--- a/数据整理/stocks/A股/创业板/300271-华宇软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300271-华宇软件.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519697</t>
+          <t>519712</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银优势行业混合</t>
+          <t>交银阿尔法核心混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>78.72</t>
+          <t>83.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3995</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519712</t>
+          <t>519697</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银阿尔法核心混合</t>
+          <t>交银优势行业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>67.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9944</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008980</t>
+          <t>590001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合A</t>
+          <t>中邮核心优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82.02</t>
+          <t>26.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0755</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008981</t>
+          <t>590008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合C</t>
+          <t>中邮战略新兴产业混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.02</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>590006</t>
+          <t>005001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮中小盘灵活配置混合</t>
+          <t>交银施罗德持续成长主题混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>80.25</t>
+          <t>28.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4010</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>002620</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时裕益灵活配置混合</t>
+          <t>中邮未来新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.54</t>
+          <t>14.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1303</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>88.31</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.59</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0750</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>590008</t>
+          <t>004278</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮战略新兴产业混合</t>
+          <t>东方红智逸沪港深定期开放混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>57.38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>36.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8091</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>590001</t>
+          <t>007777</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中邮核心优选混合</t>
+          <t>中邮研究精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6731</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008124</t>
+          <t>000219</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强C</t>
+          <t>博时裕益灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5217</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -782,15 +892,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>20.06</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4930</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009513</t>
+          <t>008980</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>创金合信同顺创业板精选股票A</t>
+          <t>中邮科技创新精选混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009514</t>
+          <t>590006</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>创金合信同顺创业板精选股票C</t>
+          <t>中邮中小盘灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3619</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -856,25 +996,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002620</t>
+          <t>003842</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中邮未来新蓝筹灵活配置混合</t>
+          <t>中邮景泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003241</t>
+          <t>008981</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合A</t>
+          <t>中邮科技创新精选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>003242</t>
+          <t>005674</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合C</t>
+          <t>诺德消费升级灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>590007</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强A</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>003842</t>
+          <t>005434</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中邮景泰灵活配置混合A</t>
+          <t>鹏华睿投灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>29.97</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>62.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1006,15 +1196,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>29.97</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2.66</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005001</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>交银施罗德持续成长主题混合</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>009513</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>创金合信同顺创业板精选股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8.98</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>003241</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>创金合信量化发现灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8.98</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005434</t>
+          <t>008890</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鹏华睿投灵活配置混合</t>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>62.97</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005674</t>
+          <t>009514</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>诺德消费升级灵活配置混合</t>
+          <t>创金合信同顺创业板精选股票C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>88.12</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>004278</t>
+          <t>590007</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东方红智逸沪港深定期开放混合</t>
+          <t>中邮中证500指数增强A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>36.38</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1192,26 +1452,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>007777</t>
+          <t>003242</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中邮研究精选混合</t>
+          <t>创金合信量化发现灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>79.65</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008890</t>
+          <t>008124</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
+          <t>中邮中证500指数增强C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,15 +1554,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>002620</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>中邮未来新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5693</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>000219</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>博时裕益灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3792</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005674</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺德消费升级灵活配置混合</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000166</t>
+          <t>009557</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中海信息产业精选混合</t>
+          <t>申万菱信创业板量化精选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>56.97</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>005674</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时裕益灵活配置混合</t>
+          <t>诺德消费升级灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.39</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002289</t>
+          <t>161233</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商改革创新股票</t>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161233</t>
+          <t>000166</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+          <t>中海信息产业精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>22.72</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002620</t>
+          <t>002289</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮未来新蓝筹灵活配置混合</t>
+          <t>华商改革创新股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009557</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>申万菱信创业板量化精选股票A</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1556,15 +1936,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.85</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300271-华宇软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300271-华宇软件.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1961,4 +1962,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4038</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300271-华宇软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300271-华宇软件.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2512,4 +2513,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300271-华宇软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300271-华宇软件.xlsx
@@ -2537,12 +2537,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300271-华宇软件.xlsx
+++ b/数据整理/stocks/A股/创业板/300271-华宇软件.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>1.44</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>27</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>18.41</v>
       </c>
     </row>
@@ -532,6 +549,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1081,7 +1230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1517,7 +1666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
